--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Fulton_Bourdillon/Thomas_Fulton_Bourdillon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Fulton_Bourdillon/Thomas_Fulton_Bourdillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Fulton Bourdillon (1849-1930) est conservateur des forêts de l'État princier indien de Travancore[1], intégré aujourd'hui dans celui du Kerala.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Fulton Bourdillon (1849-1930) est conservateur des forêts de l'État princier indien de Travancore, intégré aujourd'hui dans celui du Kerala.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1908, il écrit le premier livre sur les arbres de la forêt de la région de Travancore. Il correspond sur la vie des oiseaux avec Allan Octavian Hume et produit de nombreux articles sur la gestion de la forêt dans Indian Forester. Il travaille en association avec d'autres naturalistes comme Richard Henry Beddome et Harold S. Ferguson.
 Il existe toujours sur le côté nord de vallée du Shendurney dans le Arienkavu, un endroit appelé Bourdillon's Plot qui se trouve être l'emplacement où, en 1891, de la première parcelle de teck a été planté en utilisant des souches.
